--- a/project_plans/files/adatadbazis_struktura.xlsx
+++ b/project_plans/files/adatadbazis_struktura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>creation_service</t>
   </si>
@@ -82,16 +82,46 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>participants_ids</t>
   </si>
   <si>
     <t>foregin_key_list</t>
   </si>
   <si>
+    <t>valszeg: "123,432,132" fromaban</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>organizer_ids</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>valszeg: "123,432,132" fromaban</t>
+    </r>
+  </si>
+  <si>
+    <t>participant_ids</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>valszeg: "123,432,132" fromaban</t>
+    </r>
   </si>
   <si>
     <t>drink_requirement</t>
@@ -215,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -248,6 +278,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -590,28 +623,55 @@
       <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="L6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="11"/>
+      <c r="K7" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" s="11"/>
     </row>
     <row r="8">
       <c r="D8" s="11"/>
       <c r="H8" s="11"/>
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9">
@@ -630,32 +690,32 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
     </row>
     <row r="13">
       <c r="D13" s="11"/>
@@ -669,11 +729,11 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H15" s="9"/>
       <c r="L15" s="11"/>
@@ -731,10 +791,10 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
@@ -744,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>22</v>
@@ -753,17 +813,17 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H20" s="11"/>
       <c r="L20" s="11"/>
@@ -785,7 +845,7 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D24" s="9"/>
       <c r="H24" s="11"/>
@@ -826,10 +886,10 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28" s="11"/>
       <c r="H28" s="11"/>
@@ -837,7 +897,7 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>9</v>

--- a/project_plans/files/adatadbazis_struktura.xlsx
+++ b/project_plans/files/adatadbazis_struktura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>creation_service</t>
   </si>
@@ -112,6 +112,9 @@
     </r>
   </si>
   <si>
+    <t>desctiption</t>
+  </si>
+  <si>
     <t>participant_ids</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>quantity_mark</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>food_requirement</t>
@@ -662,15 +668,21 @@
     </row>
     <row r="8">
       <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="11"/>
     </row>
@@ -729,11 +741,11 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="9"/>
       <c r="L15" s="11"/>
@@ -791,7 +803,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>28</v>
@@ -804,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>22</v>
@@ -813,7 +825,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
@@ -830,6 +842,12 @@
     </row>
     <row r="21">
       <c r="D21" s="11"/>
+      <c r="E21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="L21" s="11"/>
     </row>
@@ -845,7 +863,7 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="9"/>
       <c r="H24" s="11"/>
@@ -886,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>28</v>
@@ -897,7 +915,7 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>9</v>

--- a/project_plans/files/adatadbazis_struktura.xlsx
+++ b/project_plans/files/adatadbazis_struktura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>creation_service</t>
   </si>
@@ -22,6 +22,9 @@
     <t>user_service</t>
   </si>
   <si>
+    <t>invitation_service</t>
+  </si>
+  <si>
     <t>party</t>
   </si>
   <si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>Friend invitation</t>
   </si>
   <si>
     <t>id</t>
@@ -49,10 +55,22 @@
     <t>foregin_key</t>
   </si>
   <si>
+    <t>not loaded</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>secret</t>
+  </si>
+  <si>
+    <t>invitatior_id</t>
+  </si>
+  <si>
+    <t>one_to_many</t>
+  </si>
+  <si>
+    <t>loaded</t>
   </si>
   <si>
     <t>time</t>
@@ -67,22 +85,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>invited_id</t>
+  </si>
+  <si>
     <t>organizer_id</t>
   </si>
   <si>
     <t>foregin_key(user_id)</t>
   </si>
   <si>
-    <t>type</t>
+    <t>many_to_many</t>
+  </si>
+  <si>
+    <t>requirement_id</t>
   </si>
   <si>
     <t>*(has to match a drink_requirement type in the party. validation on the backend)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>email</t>
   </si>
   <si>
-    <t>email</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>"Accepted/Pending/Declined"</t>
   </si>
   <si>
     <t>participants_ids</t>
@@ -91,7 +118,7 @@
     <t>foregin_key_list</t>
   </si>
   <si>
-    <t>valszeg: "123,432,132" fromaban</t>
+    <t>join table</t>
   </si>
   <si>
     <t>quantity</t>
@@ -100,37 +127,28 @@
     <t>int</t>
   </si>
   <si>
-    <t>organizer_ids</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>valszeg: "123,432,132" fromaban</t>
-    </r>
+    <t>organizer_party_ids</t>
   </si>
   <si>
     <t>desctiption</t>
   </si>
   <si>
-    <t>participant_ids</t>
+    <t>participant_party_ids</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>valszeg: "123,432,132" fromaban</t>
-    </r>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>Party invitation</t>
   </si>
   <si>
     <t>drink_requirement</t>
   </si>
   <si>
     <t>food_contribution</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>target_quantity</t>
@@ -525,181 +543,252 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="9"/>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L4" s="11"/>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="L5" s="11"/>
+      <c r="M5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L6" s="11"/>
+      <c r="M6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="11"/>
     </row>
     <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="11"/>
     </row>
     <row r="9">
       <c r="D9" s="11"/>
       <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="L9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10">
       <c r="D10" s="11"/>
       <c r="H10" s="11"/>
       <c r="L10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11">
       <c r="D11" s="11"/>
       <c r="H11" s="11"/>
       <c r="L11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="16"/>
@@ -717,7 +806,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -733,109 +822,157 @@
       <c r="D13" s="11"/>
       <c r="H13" s="11"/>
       <c r="L13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14">
       <c r="D14" s="11"/>
       <c r="H14" s="11"/>
       <c r="L14" s="11"/>
+      <c r="M14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H15" s="9"/>
       <c r="L15" s="11"/>
+      <c r="M15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H16" s="11"/>
       <c r="L16" s="11"/>
+      <c r="M16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H20" s="11"/>
       <c r="L20" s="11"/>
@@ -843,10 +980,10 @@
     <row r="21">
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21" s="11"/>
       <c r="L21" s="11"/>
@@ -862,30 +999,24 @@
       <c r="L23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="11"/>
       <c r="H24" s="11"/>
       <c r="L24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="11"/>
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="H25" s="11"/>
       <c r="L25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="D26" s="11"/>
       <c r="H26" s="11"/>
@@ -893,10 +1024,10 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D27" s="11"/>
       <c r="H27" s="11"/>
@@ -904,10 +1035,10 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D28" s="11"/>
       <c r="H28" s="11"/>
@@ -915,16 +1046,22 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D29" s="11"/>
       <c r="H29" s="11"/>
       <c r="L29" s="11"/>
     </row>
     <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="H30" s="11"/>
       <c r="L30" s="11"/>
@@ -5784,17 +5921,25 @@
       <c r="H1001" s="11"/>
       <c r="L1001" s="11"/>
     </row>
+    <row r="1002">
+      <c r="D1002" s="11"/>
+      <c r="H1002" s="11"/>
+      <c r="L1002" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="M14:P14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
